--- a/output/DIVIDEND/rebalance/rebalance_20250630.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20250630.xlsx
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01944424046961752</v>
+        <v>0.01945717283401299</v>
       </c>
       <c r="C2" t="n">
         <v>0.02191142191142191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002467181441804394</v>
+        <v>0.002454249077408922</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01708276119293448</v>
+        <v>0.01708625203223799</v>
       </c>
       <c r="C3" t="n">
         <v>0.02179289636916755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004710135176233077</v>
+        <v>0.00470664433692956</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5838,13 +5838,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01509826643111021</v>
+        <v>0.01510077516168442</v>
       </c>
       <c r="C4" t="n">
         <v>0.02177709296353364</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006678826532423429</v>
+        <v>0.006676317801849223</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01705388995216301</v>
+        <v>0.01705330356656973</v>
       </c>
       <c r="C6" t="n">
         <v>0.02158745209592667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004533562143763662</v>
+        <v>0.004534148529356942</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5901,13 +5901,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0219056555142622</v>
+        <v>0.0219105071311121</v>
       </c>
       <c r="C7" t="n">
         <v>0.0215084350677571</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0003972204465051039</v>
+        <v>-0.0004020720633550016</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02208892889983793</v>
+        <v>0.02209050700056435</v>
       </c>
       <c r="C8" t="n">
         <v>0.02144522144522144</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0006437074546164871</v>
+        <v>-0.0006452855553429025</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01853315370684966</v>
+        <v>0.01853908124449002</v>
       </c>
       <c r="C9" t="n">
         <v>0.02141361463395362</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002880460927103961</v>
+        <v>0.002874533389463592</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01853284052020653</v>
+        <v>0.01854361476809592</v>
       </c>
       <c r="C10" t="n">
         <v>0.02138200782268579</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002849167302479264</v>
+        <v>0.002838393054589872</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01985037070807575</v>
+        <v>0.01985331111809011</v>
       </c>
       <c r="C12" t="n">
         <v>0.02119236695507882</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001341996247003069</v>
+        <v>0.001339055836988703</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02069324758903246</v>
+        <v>0.02069397747231175</v>
       </c>
       <c r="C13" t="n">
         <v>0.02089210224803445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001988546590019936</v>
+        <v>0.0001981247757226988</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02563115966462988</v>
+        <v>0.02562678854347305</v>
       </c>
       <c r="C20" t="n">
         <v>0.02035478645648137</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00527637320814851</v>
+        <v>-0.005272002086991683</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01654194167782652</v>
+        <v>0.01654194808103003</v>
       </c>
       <c r="C22" t="n">
         <v>0.02025996602267788</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003718024344851367</v>
+        <v>0.003718017941647857</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6426,13 +6426,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01630645570375392</v>
+        <v>0.01630710688477289</v>
       </c>
       <c r="C32" t="n">
         <v>0.01980166725929438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003495211555540455</v>
+        <v>0.003494560374521491</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01743711239387734</v>
+        <v>0.01743996688939874</v>
       </c>
       <c r="C35" t="n">
         <v>0.01959622298605349</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002159110592176151</v>
+        <v>0.002156256096654756</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01914348468316977</v>
+        <v>0.01914777735141078</v>
       </c>
       <c r="C39" t="n">
         <v>0.01905890719450041</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.45774886693608e-05</v>
+        <v>-8.887015691037142e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6699,13 +6699,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.029169123201723</v>
+        <v>0.02915950760615212</v>
       </c>
       <c r="C45" t="n">
         <v>0.01866382205365256</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.01050530114807044</v>
+        <v>-0.01049568555249956</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01646527387092091</v>
+        <v>0.01646768726703088</v>
       </c>
       <c r="C46" t="n">
         <v>0.01828454031843862</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00181926644751771</v>
+        <v>0.001816853051407739</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0201138462564044</v>
+        <v>0.02011496926029486</v>
       </c>
       <c r="C48" t="n">
         <v>0.0181423096677334</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001971536588671</v>
+        <v>-0.00197265959256146</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6783,13 +6783,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0231807127012236</v>
+        <v>0.02317766439281063</v>
       </c>
       <c r="C49" t="n">
         <v>0.01807909604519774</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.005101616656025865</v>
+        <v>-0.005098568347612895</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6846,13 +6846,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01906089937943141</v>
+        <v>0.01905882388173506</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01906089937943141</v>
+        <v>-0.01905882388173506</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01562937214141024</v>
+        <v>0.01563025740813178</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01562937214141024</v>
+        <v>-0.01563025740813178</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01900973281785613</v>
+        <v>0.01900764192631566</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01900973281785613</v>
+        <v>-0.01900764192631566</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6909,13 +6909,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02510406530048329</v>
+        <v>0.02509822975519118</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02510406530048329</v>
+        <v>-0.02509822975519118</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02247725246330102</v>
+        <v>0.02247914006344971</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02247725246330102</v>
+        <v>-0.02247914006344971</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6951,13 +6951,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01546849106781652</v>
+        <v>0.01546853850655775</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01546849106781652</v>
+        <v>-0.01546853850655775</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02253030914227221</v>
+        <v>0.02252956996213464</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02253030914227221</v>
+        <v>-0.02252956996213464</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6993,13 +6993,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02325988105781537</v>
+        <v>0.02325775576776553</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02325988105781537</v>
+        <v>-0.02325775576776553</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01638871585397313</v>
+        <v>0.01638780063406773</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01638871585397313</v>
+        <v>-0.01638780063406773</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7035,13 +7035,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01847056484375354</v>
+        <v>0.01846989076158643</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01847056484375354</v>
+        <v>-0.01846989076158643</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7056,13 +7056,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01862107211202083</v>
+        <v>0.01862310862135066</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01862107211202083</v>
+        <v>-0.01862310862135066</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01909056947492916</v>
+        <v>0.0190899514836081</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01909056947492916</v>
+        <v>-0.0190899514836081</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7098,13 +7098,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01709454931962936</v>
+        <v>0.01709366289201791</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01709454931962936</v>
+        <v>-0.01709366289201791</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7119,13 +7119,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01929477390294706</v>
+        <v>0.01929204046381132</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01929477390294706</v>
+        <v>-0.01929204046381132</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7140,13 +7140,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0196735056300822</v>
+        <v>0.01967667962916479</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0196735056300822</v>
+        <v>-0.01967667962916479</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02041978202302564</v>
+        <v>0.02041906815455711</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02041978202302564</v>
+        <v>-0.02041906815455711</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01732650663123591</v>
+        <v>0.01732599048309834</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01732650663123591</v>
+        <v>-0.01732599048309834</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7203,13 +7203,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01851176839218636</v>
+        <v>0.0185094817405452</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01851176839218636</v>
+        <v>-0.0185094817405452</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02126443636704429</v>
+        <v>0.02126444162335627</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02126443636704429</v>
+        <v>-0.02126444162335627</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7245,13 +7245,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01936008933625617</v>
+        <v>0.01935550374041955</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01936008933625617</v>
+        <v>-0.01935550374041955</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7266,13 +7266,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02110656248412528</v>
+        <v>0.02110376394241256</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02110656248412528</v>
+        <v>-0.02110376394241256</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01908494129255821</v>
+        <v>0.0190865396041427</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01908494129255821</v>
+        <v>-0.0190865396041427</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02172508038133221</v>
+        <v>0.02172228671587869</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02172508038133221</v>
+        <v>-0.02172228671587869</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02130711587332996</v>
+        <v>0.02130739306212098</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02130711587332996</v>
+        <v>-0.02130739306212098</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7350,13 +7350,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.03053662221167099</v>
+        <v>0.03052450107181185</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03053662221167099</v>
+        <v>-0.03052450107181185</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02291323990438669</v>
+        <v>0.02290941634545162</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02291323990438669</v>
+        <v>-0.02290941634545162</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02034004542897815</v>
+        <v>0.02033990135987456</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02034004542897815</v>
+        <v>-0.02033990135987456</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7413,13 +7413,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02688638020938307</v>
+        <v>0.02688359367954082</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02688638020938307</v>
+        <v>-0.02688359367954082</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7434,13 +7434,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01589582227191082</v>
+        <v>0.0159006337108735</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01589582227191082</v>
+        <v>-0.0159006337108735</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7455,13 +7455,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01923183706717606</v>
+        <v>0.01923021666966363</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01923183706717606</v>
+        <v>-0.01923021666966363</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7476,13 +7476,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0186435504800597</v>
+        <v>0.018642257733821</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0186435504800597</v>
+        <v>-0.018642257733821</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>

--- a/output/DIVIDEND/rebalance/rebalance_20250630.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>64.97%</t>
+          <t>66.04%</t>
         </is>
       </c>
     </row>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01945717283401299</v>
+        <v>0.01687939601288712</v>
       </c>
       <c r="C2" t="n">
         <v>0.02191142191142191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002454249077408922</v>
+        <v>0.005032025898534787</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01708625203223799</v>
+        <v>0.01625046758981022</v>
       </c>
       <c r="C3" t="n">
         <v>0.02179289636916755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00470664433692956</v>
+        <v>0.005542428779357334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5838,13 +5838,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01510077516168442</v>
+        <v>0.01423890547465172</v>
       </c>
       <c r="C4" t="n">
         <v>0.02177709296353364</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006676317801849223</v>
+        <v>0.007538187488881918</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01705330356656973</v>
+        <v>0.01626116046477491</v>
       </c>
       <c r="C6" t="n">
         <v>0.02158745209592667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004534148529356942</v>
+        <v>0.005326291631151763</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5901,17 +5901,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0219105071311121</v>
+        <v>0.02103868350677356</v>
       </c>
       <c r="C7" t="n">
         <v>0.0215084350677571</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0004020720633550016</v>
+        <v>0.0004697515609835418</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -5922,17 +5922,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02209050700056435</v>
+        <v>0.02128256572019287</v>
       </c>
       <c r="C8" t="n">
         <v>0.02144522144522144</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0006452855553429025</v>
+        <v>0.0001626557250285696</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01853908124449002</v>
+        <v>0.01776356902814428</v>
       </c>
       <c r="C9" t="n">
         <v>0.02141361463395362</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002874533389463592</v>
+        <v>0.003650045605809338</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01854361476809592</v>
+        <v>0.01764327487889183</v>
       </c>
       <c r="C10" t="n">
         <v>0.02138200782268579</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002838393054589872</v>
+        <v>0.003738732943793961</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01985331111809011</v>
+        <v>0.01931971844426257</v>
       </c>
       <c r="C12" t="n">
         <v>0.02119236695507882</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001339055836988703</v>
+        <v>0.001872648510816248</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02069397747231175</v>
+        <v>0.02010398681711346</v>
       </c>
       <c r="C13" t="n">
         <v>0.02089210224803445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001981247757226988</v>
+        <v>0.0007881154309209888</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02562678854347305</v>
+        <v>0.02518812176865525</v>
       </c>
       <c r="C20" t="n">
         <v>0.02035478645648137</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.005272002086991683</v>
+        <v>-0.004833335312173878</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01654194808103003</v>
+        <v>0.01619248763074397</v>
       </c>
       <c r="C22" t="n">
         <v>0.02025996602267788</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003718017941647857</v>
+        <v>0.004067478391933915</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6426,13 +6426,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01630710688477289</v>
+        <v>0.0160908934683633</v>
       </c>
       <c r="C32" t="n">
         <v>0.01980166725929438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003494560374521491</v>
+        <v>0.003710773790931078</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01743996688939874</v>
+        <v>0.01729097369627547</v>
       </c>
       <c r="C35" t="n">
         <v>0.01959622298605349</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002156256096654756</v>
+        <v>0.00230524928977802</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6573,17 +6573,17 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01914777735141078</v>
+        <v>0.01819617639673595</v>
       </c>
       <c r="C39" t="n">
         <v>0.01905890719450041</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.887015691037142e-05</v>
+        <v>0.0008627307977644612</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6699,13 +6699,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02915950760615212</v>
+        <v>0.02782933157485873</v>
       </c>
       <c r="C45" t="n">
         <v>0.01866382205365256</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.01049568555249956</v>
+        <v>-0.009165509521206167</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01646768726703088</v>
+        <v>0.01576973680107178</v>
       </c>
       <c r="C46" t="n">
         <v>0.01828454031843862</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001816853051407739</v>
+        <v>0.002514803517366843</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02011496926029486</v>
+        <v>0.02031204329124094</v>
       </c>
       <c r="C48" t="n">
         <v>0.0181423096677334</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.00197265959256146</v>
+        <v>-0.002169733623507548</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6783,13 +6783,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02317766439281063</v>
+        <v>0.02375631814361525</v>
       </c>
       <c r="C49" t="n">
         <v>0.01807909604519774</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.005098568347612895</v>
+        <v>-0.005677222098417516</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6846,13 +6846,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01905882388173506</v>
+        <v>0.01953420481922065</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01905882388173506</v>
+        <v>-0.01953420481922065</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01563025740813178</v>
+        <v>0.01601746856371245</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01563025740813178</v>
+        <v>-0.01601746856371245</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01900764192631566</v>
+        <v>0.01948176772935356</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01900764192631566</v>
+        <v>-0.01948176772935356</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6909,13 +6909,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02509822975519118</v>
+        <v>0.02572742993984359</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02509822975519118</v>
+        <v>-0.02572742993984359</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02247914006344971</v>
+        <v>0.02303539012777429</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02247914006344971</v>
+        <v>-0.02303539012777429</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6951,13 +6951,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01546853850655775</v>
+        <v>0.01585259261633154</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01546853850655775</v>
+        <v>-0.01585259261633154</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02252956996213464</v>
+        <v>0.02308976426896353</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02252956996213464</v>
+        <v>-0.02308976426896353</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6993,13 +6993,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02325775576776553</v>
+        <v>0.02383745234731047</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02325775576776553</v>
+        <v>-0.02383745234731047</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01638780063406773</v>
+        <v>0.01679566770920488</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01638780063406773</v>
+        <v>-0.01679566770920488</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7035,13 +7035,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01846989076158643</v>
+        <v>0.01892921155514439</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01846989076158643</v>
+        <v>-0.01892921155514439</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7056,13 +7056,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01862310862135066</v>
+        <v>0.01908345610292722</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01862310862135066</v>
+        <v>-0.01908345610292722</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0190899514836081</v>
+        <v>0.01956461165947099</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.0190899514836081</v>
+        <v>-0.01956461165947099</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7098,13 +7098,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01709366289201791</v>
+        <v>0.01751902788292617</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01709366289201791</v>
+        <v>-0.01751902788292617</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7119,13 +7119,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01929204046381132</v>
+        <v>0.01977388673314345</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01929204046381132</v>
+        <v>-0.01977388673314345</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7140,13 +7140,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01967667962916479</v>
+        <v>0.01866563605028728</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01967667962916479</v>
+        <v>-0.01866563605028728</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02041906815455711</v>
+        <v>0.02092683018053479</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02041906815455711</v>
+        <v>-0.02092683018053479</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01732599048309834</v>
+        <v>0.01775674497822376</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01732599048309834</v>
+        <v>-0.01775674497822376</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7203,13 +7203,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0185094817405452</v>
+        <v>0.01897143823806964</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0185094817405452</v>
+        <v>-0.01897143823806964</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02126444162335627</v>
+        <v>0.02179245832478225</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02126444162335627</v>
+        <v>-0.02179245832478225</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7245,13 +7245,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01935550374041955</v>
+        <v>0.01984082402853116</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01935550374041955</v>
+        <v>-0.01984082402853116</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7266,13 +7266,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02110376394241256</v>
+        <v>0.02163066424029778</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02110376394241256</v>
+        <v>-0.02163066424029778</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0190865396041427</v>
+        <v>0.01955884372244949</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.0190865396041427</v>
+        <v>-0.01955884372244949</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02172228671587869</v>
+        <v>0.02226454069323326</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02172228671587869</v>
+        <v>-0.02226454069323326</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02130739306212098</v>
+        <v>0.02183619761539872</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02130739306212098</v>
+        <v>-0.02183619761539872</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7350,13 +7350,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.03052450107181185</v>
+        <v>0.0312948838822178</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03052450107181185</v>
+        <v>-0.0312948838822178</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02290941634545162</v>
+        <v>0.02348220367015972</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02290941634545162</v>
+        <v>-0.02348220367015972</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02033990135987456</v>
+        <v>0.020845113629353</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02033990135987456</v>
+        <v>-0.020845113629353</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7413,13 +7413,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02688359367954082</v>
+        <v>0.02755400190739562</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02688359367954082</v>
+        <v>-0.02755400190739562</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7434,13 +7434,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0159006337108735</v>
+        <v>0.01511399633956438</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.0159006337108735</v>
+        <v>-0.01511399633956438</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7455,13 +7455,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01923021666966363</v>
+        <v>0.01970938709877935</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01923021666966363</v>
+        <v>-0.01970938709877935</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7476,13 +7476,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.018642257733821</v>
+        <v>0.01910649263633169</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.018642257733821</v>
+        <v>-0.01910649263633169</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
